--- a/extras/FourInARow/lead_sorted.xlsx
+++ b/extras/FourInARow/lead_sorted.xlsx
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>140.461517572403</v>
+        <v>97.05435037612915</v>
       </c>
     </row>
   </sheetData>
